--- a/raw data/API_documents/40_API_documentations/data/filter_labeled_API/FabricIO.xlsx
+++ b/raw data/API_documents/40_API_documentations/data/filter_labeled_API/FabricIO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>class_name</t>
   </si>
@@ -40,52 +40,25 @@
     <t>labelAPI</t>
   </si>
   <si>
-    <t>io.fabric.sdk.android.services.concurrency.AsyncTask.Status</t>
-  </si>
-  <si>
     <t>io.fabric.sdk.android.Fabric</t>
   </si>
   <si>
-    <t>io.fabric.sdk.android.services.concurrency.Priority</t>
-  </si>
-  <si>
-    <t>Indicates the current status of the task. Each status will be set only once during the lifetime of a task.</t>
-  </si>
-  <si>
     <t>Fabric initializes and stores the provided Kit's.</t>
   </si>
   <si>
-    <t>enum to define ordering for PriorityBlockingQueue in PriorityThreadPoolExecutor</t>
-  </si>
-  <si>
-    <t>valueOf(String name)</t>
-  </si>
-  <si>
     <t>getAppIdentifier()</t>
   </si>
   <si>
     <t>getAppInstallIdentifier()</t>
   </si>
   <si>
-    <t>Returns the enum constant of this type with the specified name.</t>
-  </si>
-  <si>
     <t>The value for the Application Identifier (defaults to package name).</t>
   </si>
   <si>
     <t>The overridden value for the Application Install Identifier, or a generated value.</t>
   </si>
   <si>
-    <t>static AsyncTask.Status</t>
-  </si>
-  <si>
     <t>String</t>
-  </si>
-  <si>
-    <t>static Priority</t>
-  </si>
-  <si>
-    <t>{'the specified name'}</t>
   </si>
   <si>
     <t>{'name', 'package'}</t>
@@ -449,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,103 +459,51 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
